--- a/Check.xlsx
+++ b/Check.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Функциональные </t>
   </si>
   <si>
-    <t>Проверка входа с корректными данными (логин и пароль)</t>
+    <t>Вход с корректными данными (логин и пароль)</t>
   </si>
   <si>
     <t>High</t>
@@ -43,7 +43,17 @@
     <t>Выполнен</t>
   </si>
   <si>
-    <t>Проверка входа с пустым полем "Логин"</t>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вход с</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> пустым полем "Логин"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -60,13 +70,43 @@
     </r>
   </si>
   <si>
-    <t>Проверка входа с пустым полем "Пароль"</t>
-  </si>
-  <si>
-    <t>Проверка входа с логином состоящим из одного символа</t>
-  </si>
-  <si>
-    <t>Проверка входа с паролем состоящим из одного символа</t>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вход с</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> пустым полем "Пароль"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вход с</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> логином состоящим из одного символа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вход с</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> паролем состоящим из одного символа</t>
+    </r>
   </si>
   <si>
     <r>
@@ -79,44 +119,62 @@
     </r>
   </si>
   <si>
-    <t>Проверка входа с некорректным логином (существующий пароль, но неверный логин)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка входа с некорректным паролем (существующий логин, но неверный пароль)</t>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вход с</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> некорректным логином (существующий пароль, но неверный логин)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вход с</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> некорректным паролем (существующий логин, но неверный пароль)</t>
     </r>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
-    <t>Проверка отображения полей логина и пароля (шрифт, размер, цвет)</t>
+    <t>Отображение полей логина и пароля (шрифт, размер, цвет)</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Проверка отображения кнопки "Войти"</t>
-  </si>
-  <si>
-    <t>Проверка корректности отображения уведомлений об ошибке</t>
-  </si>
-  <si>
-    <t>Проверка маскирования пароля</t>
+    <t>Отображение кнопки "Войти"</t>
+  </si>
+  <si>
+    <t>Корректность отображения уведомлений об ошибке</t>
+  </si>
+  <si>
+    <t>Маскирование пароля</t>
   </si>
   <si>
     <t>Дополнительные</t>
   </si>
   <si>
-    <t>Проверка работы авторизации при слабом интернете</t>
-  </si>
-  <si>
-    <t>Проверка работы авторизации в оффлайн-режиме</t>
+    <t>Работа авторизации при слабом интернете</t>
+  </si>
+  <si>
+    <t>Работа авторизации в оффлайн-режиме</t>
   </si>
   <si>
     <t>Главная страница</t>
@@ -125,14 +183,22 @@
     <t>Функциональные</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка отображения списка новостей </t>
-  </si>
-  <si>
-    <t>Проверка кнопки свернуть/развернуть полного списка новостей</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка кнопки </t>
+    <t xml:space="preserve">Отображение списка новостей </t>
+  </si>
+  <si>
+    <t>Кнопка свернуть/развернуть полного списка новостей</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Кнопка</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -147,83 +213,122 @@
     </r>
   </si>
   <si>
-    <t>Проверка работы кнопки "Профиль"</t>
-  </si>
-  <si>
-    <t>Проверка работы кнопки "Цитаты"</t>
-  </si>
-  <si>
-    <t>Проверка работы кнопки "Главное меню"</t>
-  </si>
-  <si>
-    <t>Проверка работы кнопки "Все новости"</t>
-  </si>
-  <si>
-    <t>Проверка отображения кнопок "Профиль", "Цитаты", "Бургер", "Все новости"</t>
+    <t>Работа кнопки "Профиль"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> кнопки "Цитаты"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> кнопки "Главное меню"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> кнопки "Все новости"</t>
+    </r>
+  </si>
+  <si>
+    <t>Отображение кнопок "Профиль", "Цитаты", "Бургер", "Все новости"</t>
   </si>
   <si>
     <t>Цитаты</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>работы</t>
+      <t>Работа</t>
     </r>
     <r>
       <t xml:space="preserve"> кнопки свернуть/развернуть цитату</t>
     </r>
   </si>
   <si>
-    <t>Проверка корректного отображения цитат</t>
-  </si>
-  <si>
-    <t>Проверка свайпа</t>
+    <t>Корректное отображения цитат</t>
+  </si>
+  <si>
+    <t>Свайп</t>
   </si>
   <si>
     <t>Главное меню "Popup"</t>
   </si>
   <si>
-    <t>Проверка открытия главного меню при нажатии на кнопку "Бургер" через страницу с цитатами</t>
-  </si>
-  <si>
-    <t>Проверка работы кнопки "Главная"</t>
-  </si>
-  <si>
-    <t>Проверка работы кнопки "Новости"</t>
-  </si>
-  <si>
-    <t>Проверка работы кнопки "О приложении"</t>
-  </si>
-  <si>
-    <t>Проверка корректного отображения кнопок "Главная", "Новости", "О приложении"</t>
+    <t>Открытие главного меню при нажатии на кнопку "Бургер" через страницу с цитатами</t>
+  </si>
+  <si>
+    <t>Работа кнопки "Главная"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> кнопки "Новости"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> кнопки "О приложении"</t>
+    </r>
+  </si>
+  <si>
+    <t>Корректное отображения кнопок "Главная", "Новости", "О приложении"</t>
   </si>
   <si>
     <t>Новости</t>
   </si>
   <si>
-    <t>Проверка отображения списка новостей</t>
-  </si>
-  <si>
-    <t>Проверка работы кнопки "Сортировка"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>работы</t>
+    <t>Отображение списка новостей</t>
+  </si>
+  <si>
+    <t>Работа кнопки "Сортировка"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
     </r>
     <r>
       <t xml:space="preserve"> кнопки "Фильтр"</t>
@@ -231,15 +336,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>работы</t>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
     </r>
     <r>
       <t xml:space="preserve"> кнопки "Панель управления"</t>
@@ -247,80 +349,85 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>работы</t>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа</t>
     </r>
     <r>
       <t xml:space="preserve"> кнопки свернуть/развернуть новость</t>
     </r>
   </si>
   <si>
-    <t>Проверка корректного отображения новости</t>
+    <t>Корректное отображения новости</t>
   </si>
   <si>
     <t>Фильтр новостей</t>
   </si>
   <si>
-    <t>Проверка кнопки свернуть/развернуть категории</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка фильтра новостей с вводом категории вручную</t>
-    </r>
-  </si>
-  <si>
-    <t>Проверка фильтра новостей с выбранной категорией "Объявление"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Проверка фильтра новостей с выбором периода </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка кнопки "отмена"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка отображения полей "Категория", "Дата ОТ", "Дата ДО"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка отображения кнопок "ФИЛЬТРОВАТЬ", "ОТМЕНА"</t>
+    <t>Кнопка свернуть/развернуть категории</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фильтр новостей с вводом категории вручную</t>
+    </r>
+  </si>
+  <si>
+    <t>Фильтр новостей с выбранной категорией "Объявление"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Фильтр новостей с выбором периода </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Кнопка "отмена"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Отображение полей "Категория", "Дата ОТ", "Дата ДО"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Отображение</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> кнопок "ФИЛЬТРОВАТЬ", "ОТМЕНА"</t>
     </r>
   </si>
   <si>
@@ -333,57 +440,89 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка отображения списка созданных новостей</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка кнопки удаления созданной новости</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка кнопки редактирования созданной новости</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка кнопки "Создание новости"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка кнопки свернуть/развернуть описание новости</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка корректного отображения созданных новостей</t>
+      <t>Отображение</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> списка созданных новостей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Кнопка удаления созданной новости</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Кнопка</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> редактирования созданной новости</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Кнопка</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Создание новости"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Кнопка</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> свернуть/развернуть описание новости</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Корректное отображения созданных новостей</t>
     </r>
   </si>
   <si>
@@ -415,7 +554,7 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка свайпа</t>
+      <t>Свайп</t>
     </r>
   </si>
   <si>
@@ -428,7 +567,15 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка кнопки свернуть/развернуть категории</t>
+      <t>Кнопка</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> свернуть/развернуть категории</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -442,20 +589,38 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка фильтра созданных новостей с вводом категории вручную</t>
-    </r>
-  </si>
-  <si>
-    <t>Проверка фильтра созданных новостей с выбранной категорией "Объявление"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Проверка фильтра </t>
+      <t>Фильтр созданных новостей с вводом категории вручную</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фильтр</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> созданных новостей с выбранной категорией "Объявление"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фильтр</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -481,17 +646,33 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка фильтра созданных новостей с выбором только активных новостей</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка фильтра созданных новостей с выбором только не активных новостей</t>
+      <t>Фильтр</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> созданных новостей с выбором только активных новостей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фильтр</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> созданных новостей с выбором только не активных новостей</t>
     </r>
   </si>
   <si>
@@ -504,31 +685,57 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка создание новости только с заполненным полем "Категория"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка создания новости с вводом категории вручную</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка создания новости с категорией "Объявление"</t>
-    </r>
-  </si>
-  <si>
-    <t>Проверка создания новости с вводом времени вручную</t>
+      <t>Создание новости только с заполненным полем "Категория"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Создание</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости с вводом категории вручную</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Создание</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости с категорией "Объявление"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Создание</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> новости с вводом времени вручную</t>
+    </r>
   </si>
   <si>
     <t>Редактирование новости</t>
@@ -540,67 +747,115 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка редактирования новости с изменением категории вручную</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка редактирования новости с изменением категории из списка</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка редактирования новости с изменением заголовка</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка редактирования новости с изменением даты публикации</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка редактирования новости с изменением времени</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка редактирования новости с изменением описания</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка редактирования новости активна/неактивна</t>
+      <t>Редактирование новости с изменением категории вручную</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редактирование</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости с изменением категории из списка</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редактирование</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости с изменением заголовка</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редактирование</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости с изменением даты публикации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редактирование</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости с изменением времени</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редактирование</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости с изменением описания</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редактирование</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> новости активна/неактивна</t>
     </r>
   </si>
   <si>
@@ -613,27 +868,27 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка видимости версии приложения</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка перехода по ссылке политики конфиденциальности</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка перехода по ссылке пользовательское соглашение</t>
+      <t>Видимость версии приложения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Переход по ссылке политики конфиденциальности</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Переход по ссылке пользовательское соглашение</t>
     </r>
   </si>
   <si>
@@ -646,127 +901,151 @@
         <sz val="10"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Проверка установки приложения</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка удаления приложения</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка поведения приложения при входящем звонке</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка поведения приложения при входящем SMS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка поведения приложения при разблокировке экрана</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка поведения приложения при получении уведомлений</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка работы приложения в режиме энергосбережения</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка корректности работы приложения при низком заряде батареи</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Проверка работы приложения в портретном и ландшафтом режимах </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка корректности переключения между ориентациями экрана</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка работы приложения в разных типах сетей (2G, 3G, 4G, 5G, Wi-Fi)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка корректности работы приложения при переключении между типами сетей (с мобильного интернета на Wi-Fi)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="10"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Проверка работы приложения в оффлайн - режиме</t>
+      <t>Установка приложения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Удаление приложения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поведение приложения при входящем звонке</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поведение</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> приложения при входящем SMS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поведение</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> приложения при разблокировке экрана</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поведение</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> приложения при получении уведомлений</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа приложения в режиме энергосбережения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Корректность работы приложения при низком заряде батареи</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Работа приложения в портретном и ландшафтом режимах </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Корректность переключения между ориентациями экрана</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа приложения в разных типах сетей (2G, 3G, 4G, 5G, Wi-Fi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Корректность работы приложения при переключении между типами сетей (с мобильного интернета на Wi-Fi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работа приложения в оффлайн - режиме</t>
     </r>
   </si>
   <si>
@@ -920,7 +1199,7 @@
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
@@ -950,6 +1229,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
@@ -1505,7 +1787,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1522,7 +1804,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="24">
-      <c r="A24" s="12" t="s"/>
+      <c r="A24" s="13" t="s"/>
       <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1819,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="25">
-      <c r="A25" s="13" t="s"/>
+      <c r="A25" s="14" t="s"/>
       <c r="B25" s="11" t="s"/>
       <c r="C25" s="10" t="s">
         <v>40</v>
@@ -1550,7 +1832,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1567,7 +1849,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="27">
-      <c r="A27" s="12" t="s"/>
+      <c r="A27" s="13" t="s"/>
       <c r="B27" s="8" t="s"/>
       <c r="C27" s="10" t="s">
         <v>43</v>
@@ -1580,7 +1862,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="28">
-      <c r="A28" s="12" t="s"/>
+      <c r="A28" s="13" t="s"/>
       <c r="B28" s="8" t="s"/>
       <c r="C28" s="10" t="s">
         <v>44</v>
@@ -1593,7 +1875,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="29">
-      <c r="A29" s="12" t="s"/>
+      <c r="A29" s="13" t="s"/>
       <c r="B29" s="11" t="s"/>
       <c r="C29" s="10" t="s">
         <v>45</v>
@@ -1606,7 +1888,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="30">
-      <c r="A30" s="13" t="s"/>
+      <c r="A30" s="14" t="s"/>
       <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1621,7 +1903,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="31">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1638,7 +1920,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="32">
-      <c r="A32" s="12" t="s"/>
+      <c r="A32" s="13" t="s"/>
       <c r="B32" s="8" t="s"/>
       <c r="C32" s="10" t="s">
         <v>49</v>
@@ -1651,7 +1933,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="33">
-      <c r="A33" s="12" t="s"/>
+      <c r="A33" s="13" t="s"/>
       <c r="B33" s="8" t="s"/>
       <c r="C33" s="10" t="s">
         <v>50</v>
@@ -1664,7 +1946,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="34">
-      <c r="A34" s="12" t="s"/>
+      <c r="A34" s="13" t="s"/>
       <c r="B34" s="8" t="s"/>
       <c r="C34" s="10" t="s">
         <v>51</v>
@@ -1677,7 +1959,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="35">
-      <c r="A35" s="12" t="s"/>
+      <c r="A35" s="13" t="s"/>
       <c r="B35" s="11" t="s"/>
       <c r="C35" s="10" t="s">
         <v>52</v>
@@ -1690,7 +1972,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="36">
-      <c r="A36" s="12" t="s"/>
+      <c r="A36" s="13" t="s"/>
       <c r="B36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1705,7 +1987,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="37">
-      <c r="A37" s="13" t="s"/>
+      <c r="A37" s="14" t="s"/>
       <c r="B37" s="11" t="s"/>
       <c r="C37" s="10" t="s">
         <v>40</v>
@@ -1713,29 +1995,29 @@
       <c r="D37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="38">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="39">
-      <c r="A39" s="12" t="s"/>
+      <c r="A39" s="13" t="s"/>
       <c r="B39" s="8" t="s"/>
       <c r="C39" s="10" t="s">
         <v>56</v>
@@ -1743,12 +2025,12 @@
       <c r="D39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="40">
-      <c r="A40" s="12" t="s"/>
+      <c r="A40" s="13" t="s"/>
       <c r="B40" s="8" t="s"/>
       <c r="C40" s="10" t="s">
         <v>57</v>
@@ -1761,7 +2043,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="41">
-      <c r="A41" s="12" t="s"/>
+      <c r="A41" s="13" t="s"/>
       <c r="B41" s="8" t="s"/>
       <c r="C41" s="10" t="s">
         <v>58</v>
@@ -1774,7 +2056,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="42">
-      <c r="A42" s="12" t="s"/>
+      <c r="A42" s="13" t="s"/>
       <c r="B42" s="11" t="s"/>
       <c r="C42" s="10" t="s">
         <v>59</v>
@@ -1787,7 +2069,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="43">
-      <c r="A43" s="12" t="s"/>
+      <c r="A43" s="13" t="s"/>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1802,7 +2084,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="44">
-      <c r="A44" s="13" t="s"/>
+      <c r="A44" s="14" t="s"/>
       <c r="B44" s="11" t="s"/>
       <c r="C44" s="10" t="s">
         <v>61</v>
@@ -1815,7 +2097,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="45">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -1832,7 +2114,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="46">
-      <c r="A46" s="12" t="s"/>
+      <c r="A46" s="13" t="s"/>
       <c r="B46" s="8" t="s"/>
       <c r="C46" s="10" t="s">
         <v>64</v>
@@ -1845,7 +2127,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="47">
-      <c r="A47" s="12" t="s"/>
+      <c r="A47" s="13" t="s"/>
       <c r="B47" s="8" t="s"/>
       <c r="C47" s="10" t="s">
         <v>65</v>
@@ -1858,7 +2140,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="48">
-      <c r="A48" s="12" t="s"/>
+      <c r="A48" s="13" t="s"/>
       <c r="B48" s="8" t="s"/>
       <c r="C48" s="10" t="s">
         <v>66</v>
@@ -1871,7 +2153,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="49">
-      <c r="A49" s="12" t="s"/>
+      <c r="A49" s="13" t="s"/>
       <c r="B49" s="11" t="s"/>
       <c r="C49" s="10" t="s">
         <v>67</v>
@@ -1884,7 +2166,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="50">
-      <c r="A50" s="12" t="s"/>
+      <c r="A50" s="13" t="s"/>
       <c r="B50" s="5" t="s">
         <v>18</v>
       </c>
@@ -1894,12 +2176,12 @@
       <c r="D50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="51">
-      <c r="A51" s="13" t="s"/>
+      <c r="A51" s="14" t="s"/>
       <c r="B51" s="11" t="s"/>
       <c r="C51" s="10" t="s">
         <v>70</v>
@@ -1912,7 +2194,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="52">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -1929,7 +2211,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="53">
-      <c r="A53" s="12" t="s"/>
+      <c r="A53" s="13" t="s"/>
       <c r="B53" s="8" t="s"/>
       <c r="C53" s="10" t="s">
         <v>73</v>
@@ -1937,17 +2219,17 @@
       <c r="D53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="54">
-      <c r="A54" s="12" t="s"/>
+      <c r="A54" s="13" t="s"/>
       <c r="B54" s="8" t="s"/>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -1955,12 +2237,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="55">
-      <c r="A55" s="12" t="s"/>
+      <c r="A55" s="13" t="s"/>
       <c r="B55" s="8" t="s"/>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -1968,12 +2250,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="56">
-      <c r="A56" s="12" t="s"/>
+      <c r="A56" s="13" t="s"/>
       <c r="B56" s="8" t="s"/>
       <c r="C56" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -1981,12 +2263,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="57">
-      <c r="A57" s="12" t="s"/>
+      <c r="A57" s="13" t="s"/>
       <c r="B57" s="8" t="s"/>
       <c r="C57" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -1994,12 +2276,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="58">
-      <c r="A58" s="13" t="s"/>
+      <c r="A58" s="14" t="s"/>
       <c r="B58" s="11" t="s"/>
       <c r="C58" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -2007,7 +2289,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="59">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2024,12 +2306,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="60">
-      <c r="A60" s="12" t="s"/>
+      <c r="A60" s="13" t="s"/>
       <c r="B60" s="8" t="s"/>
       <c r="C60" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -2037,12 +2319,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="61">
-      <c r="A61" s="12" t="s"/>
+      <c r="A61" s="13" t="s"/>
       <c r="B61" s="8" t="s"/>
       <c r="C61" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -2050,12 +2332,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="62">
-      <c r="A62" s="13" t="s"/>
+      <c r="A62" s="14" t="s"/>
       <c r="B62" s="11" t="s"/>
       <c r="C62" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -2063,7 +2345,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="63">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -2072,7 +2354,7 @@
       <c r="C63" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -2080,12 +2362,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="64">
-      <c r="A64" s="12" t="s"/>
+      <c r="A64" s="13" t="s"/>
       <c r="B64" s="8" t="s"/>
       <c r="C64" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -2093,12 +2375,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="65">
-      <c r="A65" s="12" t="s"/>
+      <c r="A65" s="13" t="s"/>
       <c r="B65" s="8" t="s"/>
       <c r="C65" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -2106,12 +2388,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="66">
-      <c r="A66" s="12" t="s"/>
+      <c r="A66" s="13" t="s"/>
       <c r="B66" s="8" t="s"/>
       <c r="C66" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -2119,12 +2401,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="67">
-      <c r="A67" s="12" t="s"/>
+      <c r="A67" s="13" t="s"/>
       <c r="B67" s="8" t="s"/>
       <c r="C67" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -2132,12 +2414,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="68">
-      <c r="A68" s="12" t="s"/>
+      <c r="A68" s="13" t="s"/>
       <c r="B68" s="8" t="s"/>
       <c r="C68" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -2145,12 +2427,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="69">
-      <c r="A69" s="13" t="s"/>
+      <c r="A69" s="14" t="s"/>
       <c r="B69" s="11" t="s"/>
       <c r="C69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -2158,7 +2440,7 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="70">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -2167,7 +2449,7 @@
       <c r="C70" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -2175,40 +2457,40 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="71">
-      <c r="A71" s="12" t="s"/>
+      <c r="A71" s="13" t="s"/>
       <c r="B71" s="8" t="s"/>
       <c r="C71" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="D71" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="72">
-      <c r="A72" s="13" t="s"/>
+      <c r="A72" s="14" t="s"/>
       <c r="B72" s="11" t="s"/>
       <c r="C72" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="D72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="73">
-      <c r="A73" s="10" t="n"/>
-      <c r="B73" s="10" t="s">
+      <c r="A73" s="12" t="n"/>
+      <c r="B73" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -2216,12 +2498,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="74">
-      <c r="A74" s="12" t="s"/>
-      <c r="B74" s="12" t="s"/>
+      <c r="A74" s="13" t="s"/>
+      <c r="B74" s="13" t="s"/>
       <c r="C74" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -2229,12 +2511,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="75">
-      <c r="A75" s="12" t="s"/>
-      <c r="B75" s="12" t="s"/>
+      <c r="A75" s="13" t="s"/>
+      <c r="B75" s="13" t="s"/>
       <c r="C75" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -2242,12 +2524,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="76">
-      <c r="A76" s="12" t="s"/>
-      <c r="B76" s="12" t="s"/>
+      <c r="A76" s="13" t="s"/>
+      <c r="B76" s="13" t="s"/>
       <c r="C76" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -2255,12 +2537,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="77">
-      <c r="A77" s="12" t="s"/>
-      <c r="B77" s="12" t="s"/>
+      <c r="A77" s="13" t="s"/>
+      <c r="B77" s="13" t="s"/>
       <c r="C77" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -2268,12 +2550,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="78">
-      <c r="A78" s="12" t="s"/>
-      <c r="B78" s="12" t="s"/>
+      <c r="A78" s="13" t="s"/>
+      <c r="B78" s="13" t="s"/>
       <c r="C78" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -2281,12 +2563,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="79">
-      <c r="A79" s="12" t="s"/>
-      <c r="B79" s="12" t="s"/>
+      <c r="A79" s="13" t="s"/>
+      <c r="B79" s="13" t="s"/>
       <c r="C79" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -2294,12 +2576,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="80">
-      <c r="A80" s="12" t="s"/>
-      <c r="B80" s="12" t="s"/>
+      <c r="A80" s="13" t="s"/>
+      <c r="B80" s="13" t="s"/>
       <c r="C80" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -2307,12 +2589,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="81">
-      <c r="A81" s="12" t="s"/>
-      <c r="B81" s="12" t="s"/>
+      <c r="A81" s="13" t="s"/>
+      <c r="B81" s="13" t="s"/>
       <c r="C81" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -2320,12 +2602,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="82">
-      <c r="A82" s="12" t="s"/>
-      <c r="B82" s="12" t="s"/>
+      <c r="A82" s="13" t="s"/>
+      <c r="B82" s="13" t="s"/>
       <c r="C82" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -2333,12 +2615,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="83">
-      <c r="A83" s="12" t="s"/>
-      <c r="B83" s="12" t="s"/>
+      <c r="A83" s="13" t="s"/>
+      <c r="B83" s="13" t="s"/>
       <c r="C83" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -2346,12 +2628,12 @@
       </c>
     </row>
     <row customHeight="true" ht="36.850414276123" outlineLevel="0" r="84">
-      <c r="A84" s="12" t="s"/>
-      <c r="B84" s="12" t="s"/>
+      <c r="A84" s="13" t="s"/>
+      <c r="B84" s="13" t="s"/>
       <c r="C84" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -2359,12 +2641,12 @@
       </c>
     </row>
     <row customHeight="true" ht="28.3464736938477" outlineLevel="0" r="85">
-      <c r="A85" s="13" t="s"/>
-      <c r="B85" s="13" t="s"/>
+      <c r="A85" s="14" t="s"/>
+      <c r="B85" s="14" t="s"/>
       <c r="C85" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -2396,14 +2678,14 @@
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="B73:B85"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B38:B42"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -2416,12 +2698,12 @@
     <mergeCell ref="A73:A85"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B26:B29"/>
   </mergeCells>
@@ -2450,115 +2732,115 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="21" t="n"/>
-      <c r="B2" s="21" t="n"/>
-      <c r="C2" s="21" t="n"/>
+      <c r="A2" s="22" t="n"/>
+      <c r="B2" s="22" t="n"/>
+      <c r="C2" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="22" t="s"/>
-      <c r="B3" s="21" t="n"/>
-      <c r="C3" s="21" t="n"/>
+      <c r="A3" s="23" t="s"/>
+      <c r="B3" s="22" t="n"/>
+      <c r="C3" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="22" t="s"/>
-      <c r="B4" s="21" t="n"/>
-      <c r="C4" s="21" t="n"/>
+      <c r="A4" s="23" t="s"/>
+      <c r="B4" s="22" t="n"/>
+      <c r="C4" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="23" t="s"/>
-      <c r="B5" s="21" t="n"/>
-      <c r="C5" s="21" t="n"/>
+      <c r="A5" s="24" t="s"/>
+      <c r="B5" s="22" t="n"/>
+      <c r="C5" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="21" t="n"/>
-      <c r="C6" s="21" t="n"/>
+      <c r="A6" s="22" t="n"/>
+      <c r="B6" s="22" t="n"/>
+      <c r="C6" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="22" t="s"/>
-      <c r="B7" s="21" t="n"/>
-      <c r="C7" s="21" t="n"/>
+      <c r="A7" s="23" t="s"/>
+      <c r="B7" s="22" t="n"/>
+      <c r="C7" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="22" t="s"/>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" s="21" t="n"/>
+      <c r="A8" s="23" t="s"/>
+      <c r="B8" s="22" t="n"/>
+      <c r="C8" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="22" t="s"/>
-      <c r="B9" s="21" t="n"/>
-      <c r="C9" s="21" t="n"/>
+      <c r="A9" s="23" t="s"/>
+      <c r="B9" s="22" t="n"/>
+      <c r="C9" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="23" t="s"/>
-      <c r="B10" s="21" t="n"/>
-      <c r="C10" s="21" t="n"/>
+      <c r="A10" s="24" t="s"/>
+      <c r="B10" s="22" t="n"/>
+      <c r="C10" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="21" t="n"/>
-      <c r="B11" s="21" t="n"/>
-      <c r="C11" s="21" t="n"/>
+      <c r="A11" s="22" t="n"/>
+      <c r="B11" s="22" t="n"/>
+      <c r="C11" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="22" t="s"/>
-      <c r="B12" s="21" t="n"/>
-      <c r="C12" s="21" t="n"/>
+      <c r="A12" s="23" t="s"/>
+      <c r="B12" s="22" t="n"/>
+      <c r="C12" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="22" t="s"/>
-      <c r="B13" s="21" t="n"/>
-      <c r="C13" s="21" t="n"/>
+      <c r="A13" s="23" t="s"/>
+      <c r="B13" s="22" t="n"/>
+      <c r="C13" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="22" t="s"/>
-      <c r="B14" s="21" t="n"/>
-      <c r="C14" s="21" t="n"/>
+      <c r="A14" s="23" t="s"/>
+      <c r="B14" s="22" t="n"/>
+      <c r="C14" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="23" t="s"/>
-      <c r="B15" s="21" t="n"/>
-      <c r="C15" s="21" t="n"/>
+      <c r="A15" s="24" t="s"/>
+      <c r="B15" s="22" t="n"/>
+      <c r="C15" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="21" t="n"/>
-      <c r="C16" s="21" t="n"/>
+      <c r="A16" s="22" t="n"/>
+      <c r="B16" s="22" t="n"/>
+      <c r="C16" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="22" t="s"/>
-      <c r="B17" s="21" t="n"/>
-      <c r="C17" s="21" t="n"/>
+      <c r="A17" s="23" t="s"/>
+      <c r="B17" s="22" t="n"/>
+      <c r="C17" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="22" t="s"/>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="21" t="n"/>
+      <c r="A18" s="23" t="s"/>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="22" t="s"/>
-      <c r="B19" s="21" t="n"/>
-      <c r="C19" s="21" t="n"/>
+      <c r="A19" s="23" t="s"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="23" t="s"/>
-      <c r="B20" s="21" t="n"/>
-      <c r="C20" s="21" t="n"/>
+      <c r="A20" s="24" t="s"/>
+      <c r="B20" s="22" t="n"/>
+      <c r="C20" s="22" t="n"/>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="21" t="n"/>
-      <c r="B21" s="21" t="n"/>
-      <c r="C21" s="21" t="n"/>
+      <c r="A21" s="22" t="n"/>
+      <c r="B21" s="22" t="n"/>
+      <c r="C21" s="22" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
